--- a/data/pca/factorExposure/factorExposure_2015-12-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-12-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01744765551864467</v>
+        <v>0.01764022891054864</v>
       </c>
       <c r="C2">
-        <v>0.03194706706236524</v>
+        <v>-0.03253539976832737</v>
       </c>
       <c r="D2">
-        <v>0.09288594394550724</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1158009510327816</v>
+      </c>
+      <c r="E2">
+        <v>-0.06662512804044127</v>
+      </c>
+      <c r="F2">
+        <v>-0.01006395451956847</v>
+      </c>
+      <c r="G2">
+        <v>0.04843439741664825</v>
+      </c>
+      <c r="H2">
+        <v>0.09556908574370183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.01536697383645184</v>
+        <v>0.008731515003335516</v>
       </c>
       <c r="C3">
-        <v>0.05451861665476836</v>
+        <v>-0.03616979703583227</v>
       </c>
       <c r="D3">
-        <v>0.1411091582455174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.08292492183760879</v>
+      </c>
+      <c r="E3">
+        <v>-0.07498268548324936</v>
+      </c>
+      <c r="F3">
+        <v>-0.03326158585177916</v>
+      </c>
+      <c r="G3">
+        <v>0.07975571758233006</v>
+      </c>
+      <c r="H3">
+        <v>0.04587497674342102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04882848637933176</v>
+        <v>0.05320667756957041</v>
       </c>
       <c r="C4">
-        <v>0.03552405816372159</v>
+        <v>-0.06389204332794282</v>
       </c>
       <c r="D4">
-        <v>0.1256201716082206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1403461235018458</v>
+      </c>
+      <c r="E4">
+        <v>-0.05449657113759319</v>
+      </c>
+      <c r="F4">
+        <v>-0.01819735032618164</v>
+      </c>
+      <c r="G4">
+        <v>-0.02782278212935346</v>
+      </c>
+      <c r="H4">
+        <v>-0.02885810721695476</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.04373191567194513</v>
+        <v>0.04037225248579279</v>
       </c>
       <c r="C6">
-        <v>0.004374730253683075</v>
+        <v>-0.02569331795052518</v>
       </c>
       <c r="D6">
-        <v>0.1309839597673142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1294118159598902</v>
+      </c>
+      <c r="E6">
+        <v>-0.03002482781837112</v>
+      </c>
+      <c r="F6">
+        <v>-0.01195046666578725</v>
+      </c>
+      <c r="G6">
+        <v>0.009603297007767221</v>
+      </c>
+      <c r="H6">
+        <v>0.0149455788648159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02212921076021705</v>
+        <v>0.01571756286948996</v>
       </c>
       <c r="C7">
-        <v>0.01373356501218564</v>
+        <v>-0.02946020616771706</v>
       </c>
       <c r="D7">
-        <v>0.09220605931779641</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09153410059738619</v>
+      </c>
+      <c r="E7">
+        <v>-0.0344092670523486</v>
+      </c>
+      <c r="F7">
+        <v>-0.01674796588666969</v>
+      </c>
+      <c r="G7">
+        <v>-0.0243375979986282</v>
+      </c>
+      <c r="H7">
+        <v>0.1041334440732579</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.00921002824798881</v>
+        <v>0.007366381234631566</v>
       </c>
       <c r="C8">
-        <v>0.02923962381001749</v>
+        <v>-0.03839266974558359</v>
       </c>
       <c r="D8">
-        <v>0.06265028193435347</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.07578260775672774</v>
+      </c>
+      <c r="E8">
+        <v>-0.03836217922381147</v>
+      </c>
+      <c r="F8">
+        <v>-0.03021149153367499</v>
+      </c>
+      <c r="G8">
+        <v>0.003907424837039812</v>
+      </c>
+      <c r="H8">
+        <v>0.04011955350230535</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.04095912611095918</v>
+        <v>0.04110875801594766</v>
       </c>
       <c r="C9">
-        <v>0.03649191751200317</v>
+        <v>-0.05963181127906287</v>
       </c>
       <c r="D9">
-        <v>0.1092852693437854</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1174924359907548</v>
+      </c>
+      <c r="E9">
+        <v>-0.03521433537090664</v>
+      </c>
+      <c r="F9">
+        <v>-0.0005034689485986667</v>
+      </c>
+      <c r="G9">
+        <v>-0.02399367083920051</v>
+      </c>
+      <c r="H9">
+        <v>0.005684559824002553</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.096360998224665</v>
+        <v>0.1367169846300094</v>
       </c>
       <c r="C10">
-        <v>-0.194154040906942</v>
+        <v>0.1879663578458592</v>
       </c>
       <c r="D10">
-        <v>-0.004426048080869984</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.000515592129890862</v>
+      </c>
+      <c r="E10">
+        <v>-0.05204135561035191</v>
+      </c>
+      <c r="F10">
+        <v>-0.01311655000307972</v>
+      </c>
+      <c r="G10">
+        <v>-0.04099122923974471</v>
+      </c>
+      <c r="H10">
+        <v>-0.00753474157688613</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03396670007879747</v>
+        <v>0.02826849221086412</v>
       </c>
       <c r="C11">
-        <v>0.03813621675731108</v>
+        <v>-0.04322116973845496</v>
       </c>
       <c r="D11">
-        <v>0.06120534487083831</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05818452392974478</v>
+      </c>
+      <c r="E11">
+        <v>0.0001151718602962371</v>
+      </c>
+      <c r="F11">
+        <v>-0.009250465509595039</v>
+      </c>
+      <c r="G11">
+        <v>-0.006508776356351898</v>
+      </c>
+      <c r="H11">
+        <v>0.04908852660335926</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03839194167942434</v>
+        <v>0.03253600617647488</v>
       </c>
       <c r="C12">
-        <v>0.04134419725973957</v>
+        <v>-0.04607122090507195</v>
       </c>
       <c r="D12">
-        <v>0.06043767737306012</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05616833765471908</v>
+      </c>
+      <c r="E12">
+        <v>-0.008383624075858102</v>
+      </c>
+      <c r="F12">
+        <v>-0.004830443714710958</v>
+      </c>
+      <c r="G12">
+        <v>-0.01236552227168644</v>
+      </c>
+      <c r="H12">
+        <v>0.06369996206273477</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01368024529903018</v>
+        <v>0.01782545712304708</v>
       </c>
       <c r="C13">
-        <v>0.02668099579964951</v>
+        <v>-0.03875030435111977</v>
       </c>
       <c r="D13">
-        <v>0.1238189637289283</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1419646135241303</v>
+      </c>
+      <c r="E13">
+        <v>-0.06132487228150402</v>
+      </c>
+      <c r="F13">
+        <v>-0.0289175609688008</v>
+      </c>
+      <c r="G13">
+        <v>-0.007186244097366311</v>
+      </c>
+      <c r="H13">
+        <v>0.09920846848955099</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01153316566159254</v>
+        <v>0.007968161456022773</v>
       </c>
       <c r="C14">
-        <v>0.01848480717018943</v>
+        <v>-0.02439591953385023</v>
       </c>
       <c r="D14">
-        <v>0.0831753313645041</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.08500131853461482</v>
+      </c>
+      <c r="E14">
+        <v>-0.03182140711525488</v>
+      </c>
+      <c r="F14">
+        <v>0.008778651455480782</v>
+      </c>
+      <c r="G14">
+        <v>-0.005984762848719602</v>
+      </c>
+      <c r="H14">
+        <v>0.0991639531557387</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.001329279793331936</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.009495286119017163</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.0286013137149197</v>
+      </c>
+      <c r="E15">
+        <v>-0.00519983874132361</v>
+      </c>
+      <c r="F15">
+        <v>0.002114504103418957</v>
+      </c>
+      <c r="G15">
+        <v>0.006608670947760788</v>
+      </c>
+      <c r="H15">
+        <v>0.0111589708284651</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03625125347327155</v>
+        <v>0.02937200236624996</v>
       </c>
       <c r="C16">
-        <v>0.03988731523184398</v>
+        <v>-0.04388120006562078</v>
       </c>
       <c r="D16">
-        <v>0.0689282364820429</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06111883848399946</v>
+      </c>
+      <c r="E16">
+        <v>-0.01113554410320846</v>
+      </c>
+      <c r="F16">
+        <v>0.003203180580716298</v>
+      </c>
+      <c r="G16">
+        <v>-0.002737339956364324</v>
+      </c>
+      <c r="H16">
+        <v>0.0583182464673028</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.009322007603911995</v>
+        <v>0.01056244449338002</v>
       </c>
       <c r="C19">
-        <v>0.01851199941321584</v>
+        <v>-0.02096613696794148</v>
       </c>
       <c r="D19">
-        <v>0.171022880862786</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1311343922281363</v>
+      </c>
+      <c r="E19">
+        <v>-0.06026803124849529</v>
+      </c>
+      <c r="F19">
+        <v>0.02782315832778474</v>
+      </c>
+      <c r="G19">
+        <v>0.01244038415601393</v>
+      </c>
+      <c r="H19">
+        <v>0.06160318858476661</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.02030172253279466</v>
+        <v>0.01578284266162451</v>
       </c>
       <c r="C20">
-        <v>0.02010392471774272</v>
+        <v>-0.03207312604640589</v>
       </c>
       <c r="D20">
-        <v>0.08680008756843731</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.09548232467478041</v>
+      </c>
+      <c r="E20">
+        <v>-0.05273072299882563</v>
+      </c>
+      <c r="F20">
+        <v>0.007472825808386619</v>
+      </c>
+      <c r="G20">
+        <v>-0.007756694323367231</v>
+      </c>
+      <c r="H20">
+        <v>0.05728018786119158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.009310671469954493</v>
+        <v>0.01481536319188879</v>
       </c>
       <c r="C21">
-        <v>0.02512099037071833</v>
+        <v>-0.03671960014961458</v>
       </c>
       <c r="D21">
-        <v>0.127427893671555</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1379133663070375</v>
+      </c>
+      <c r="E21">
+        <v>-0.08750046490873961</v>
+      </c>
+      <c r="F21">
+        <v>0.01428056479669903</v>
+      </c>
+      <c r="G21">
+        <v>-0.04722728136068233</v>
+      </c>
+      <c r="H21">
+        <v>0.1073813285502195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.004734116394797759</v>
+        <v>0.00537669258513963</v>
       </c>
       <c r="C22">
-        <v>0.02491085615085989</v>
+        <v>-0.0394379707903216</v>
       </c>
       <c r="D22">
-        <v>0.07408977739804935</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1302089483982322</v>
+      </c>
+      <c r="E22">
+        <v>-0.03342331720593034</v>
+      </c>
+      <c r="F22">
+        <v>-0.07868130622588906</v>
+      </c>
+      <c r="G22">
+        <v>0.06906422909958082</v>
+      </c>
+      <c r="H22">
+        <v>-0.03766190670389709</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.004774920931625677</v>
+        <v>0.005471549317179651</v>
       </c>
       <c r="C23">
-        <v>0.02490155470549017</v>
+        <v>-0.03988737057828701</v>
       </c>
       <c r="D23">
-        <v>0.07350743318599176</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1296662791472408</v>
+      </c>
+      <c r="E23">
+        <v>-0.03365615048662354</v>
+      </c>
+      <c r="F23">
+        <v>-0.07858223993303221</v>
+      </c>
+      <c r="G23">
+        <v>0.06819162727853634</v>
+      </c>
+      <c r="H23">
+        <v>-0.03801462474711333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03480964500105987</v>
+        <v>0.03070802281885611</v>
       </c>
       <c r="C24">
-        <v>0.0441849894806343</v>
+        <v>-0.05453303368649894</v>
       </c>
       <c r="D24">
-        <v>0.06962506427601607</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.0654905120317459</v>
+      </c>
+      <c r="E24">
+        <v>-0.01364269716476663</v>
+      </c>
+      <c r="F24">
+        <v>0.0004180182956061251</v>
+      </c>
+      <c r="G24">
+        <v>-0.01609765049904088</v>
+      </c>
+      <c r="H24">
+        <v>0.06801397727107394</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.04002458065126228</v>
+        <v>0.03481798394958302</v>
       </c>
       <c r="C25">
-        <v>0.04813913407988468</v>
+        <v>-0.05317038006917944</v>
       </c>
       <c r="D25">
-        <v>0.06831231201726094</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.0612320682411493</v>
+      </c>
+      <c r="E25">
+        <v>-0.01725070827588654</v>
+      </c>
+      <c r="F25">
+        <v>-0.007956744691832125</v>
+      </c>
+      <c r="G25">
+        <v>-0.02007705816028105</v>
+      </c>
+      <c r="H25">
+        <v>0.05577971729428252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02394960110900243</v>
+        <v>0.02096108555573992</v>
       </c>
       <c r="C26">
-        <v>0.002894164192360667</v>
+        <v>-0.01695983234892809</v>
       </c>
       <c r="D26">
-        <v>0.05462775906166777</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06472114388715818</v>
+      </c>
+      <c r="E26">
+        <v>-0.02528389686928991</v>
+      </c>
+      <c r="F26">
+        <v>0.005206610789151384</v>
+      </c>
+      <c r="G26">
+        <v>0.0002014865740868716</v>
+      </c>
+      <c r="H26">
+        <v>0.05735283397941097</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.140827915567952</v>
+        <v>0.1940471521510701</v>
       </c>
       <c r="C28">
-        <v>-0.2728667418210497</v>
+        <v>0.2542255907820275</v>
       </c>
       <c r="D28">
-        <v>-0.04098673731204599</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01602626081236522</v>
+      </c>
+      <c r="E28">
+        <v>-0.07469694022581405</v>
+      </c>
+      <c r="F28">
+        <v>0.005043239783751155</v>
+      </c>
+      <c r="G28">
+        <v>-0.07536696629244255</v>
+      </c>
+      <c r="H28">
+        <v>0.0004934768123756645</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.00473916979092722</v>
+        <v>0.006485205954741138</v>
       </c>
       <c r="C29">
-        <v>0.01820815501214602</v>
+        <v>-0.02292613201100823</v>
       </c>
       <c r="D29">
-        <v>0.06582599633745546</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.07926493087747641</v>
+      </c>
+      <c r="E29">
+        <v>-0.03561889899016738</v>
+      </c>
+      <c r="F29">
+        <v>-0.004206189466287789</v>
+      </c>
+      <c r="G29">
+        <v>-0.02277780792797594</v>
+      </c>
+      <c r="H29">
+        <v>0.1006048848518593</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.04218117103457405</v>
+        <v>0.04273819100334798</v>
       </c>
       <c r="C30">
-        <v>0.03266351791017816</v>
+        <v>-0.05876821161663146</v>
       </c>
       <c r="D30">
-        <v>0.1651216975417606</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1764863913029121</v>
+      </c>
+      <c r="E30">
+        <v>-0.02079534460960913</v>
+      </c>
+      <c r="F30">
+        <v>-0.008535548161201388</v>
+      </c>
+      <c r="G30">
+        <v>0.03538038861374051</v>
+      </c>
+      <c r="H30">
+        <v>0.01074653484484277</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06536884409752945</v>
+        <v>0.05458467201116879</v>
       </c>
       <c r="C31">
-        <v>0.0501472957702697</v>
+        <v>-0.07174892727581726</v>
       </c>
       <c r="D31">
-        <v>0.0639302810735735</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.05414621766147342</v>
+      </c>
+      <c r="E31">
+        <v>-0.03887430534957292</v>
+      </c>
+      <c r="F31">
+        <v>-0.03941517838031099</v>
+      </c>
+      <c r="G31">
+        <v>-0.01331599871052974</v>
+      </c>
+      <c r="H31">
+        <v>0.03638428646465158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.001084905777927629</v>
+        <v>0.01100124575195575</v>
       </c>
       <c r="C32">
-        <v>0.005501793508103122</v>
+        <v>-0.01611023984387182</v>
       </c>
       <c r="D32">
-        <v>0.05894538140394538</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.09327601090821397</v>
+      </c>
+      <c r="E32">
+        <v>-0.08176425858521016</v>
+      </c>
+      <c r="F32">
+        <v>0.001740904909669648</v>
+      </c>
+      <c r="G32">
+        <v>-0.05885593641531277</v>
+      </c>
+      <c r="H32">
+        <v>0.08477218870084034</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02583291970676286</v>
+        <v>0.02403522402955759</v>
       </c>
       <c r="C33">
-        <v>0.0212535739076221</v>
+        <v>-0.04141004380415225</v>
       </c>
       <c r="D33">
-        <v>0.1344806696303721</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1317526043530692</v>
+      </c>
+      <c r="E33">
+        <v>-0.04651523706301569</v>
+      </c>
+      <c r="F33">
+        <v>-0.01564534715181818</v>
+      </c>
+      <c r="G33">
+        <v>-0.009407822502190024</v>
+      </c>
+      <c r="H33">
+        <v>0.06668889576623341</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.0327244348236676</v>
+        <v>0.02777674809638364</v>
       </c>
       <c r="C34">
-        <v>0.05943815023271028</v>
+        <v>-0.06105654555012884</v>
       </c>
       <c r="D34">
-        <v>0.07038619153171141</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05941438687424257</v>
+      </c>
+      <c r="E34">
+        <v>0.002736775174921402</v>
+      </c>
+      <c r="F34">
+        <v>0.0006146251943052891</v>
+      </c>
+      <c r="G34">
+        <v>-0.01714693920380428</v>
+      </c>
+      <c r="H34">
+        <v>0.07604783823879641</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0007324474927963011</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.0003193345551041771</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.00369407379116532</v>
+      </c>
+      <c r="E35">
+        <v>-0.0004086286730334641</v>
+      </c>
+      <c r="F35">
+        <v>-0.0001746392903338109</v>
+      </c>
+      <c r="G35">
+        <v>0.0002060237439266721</v>
+      </c>
+      <c r="H35">
+        <v>0.002597020489198187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02123103370787146</v>
+        <v>0.01889032193218275</v>
       </c>
       <c r="C36">
-        <v>0.0009030756889759843</v>
+        <v>-0.01504436275513866</v>
       </c>
       <c r="D36">
-        <v>0.07337937434895493</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.07715193750032599</v>
+      </c>
+      <c r="E36">
+        <v>-0.03409331672631973</v>
+      </c>
+      <c r="F36">
+        <v>0.003880733889642199</v>
+      </c>
+      <c r="G36">
+        <v>-0.01547985128601674</v>
+      </c>
+      <c r="H36">
+        <v>0.05173033146588774</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.02778501168874575</v>
+        <v>0.02187650250658804</v>
       </c>
       <c r="C38">
-        <v>0.01691993911083965</v>
+        <v>-0.02208495404628805</v>
       </c>
       <c r="D38">
-        <v>0.05952264822217389</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0619666387475946</v>
+      </c>
+      <c r="E38">
+        <v>-0.04173251701840511</v>
+      </c>
+      <c r="F38">
+        <v>0.006604099391769765</v>
+      </c>
+      <c r="G38">
+        <v>0.03279865622668643</v>
+      </c>
+      <c r="H38">
+        <v>0.04344352629355919</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03993862539526961</v>
+        <v>0.03583406842072664</v>
       </c>
       <c r="C39">
-        <v>0.0514850589187866</v>
+        <v>-0.06421952905641548</v>
       </c>
       <c r="D39">
-        <v>0.09260118686124549</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.103068828539104</v>
+      </c>
+      <c r="E39">
+        <v>-0.008287624438419438</v>
+      </c>
+      <c r="F39">
+        <v>0.01641450817087705</v>
+      </c>
+      <c r="G39">
+        <v>-0.0028059622067646</v>
+      </c>
+      <c r="H39">
+        <v>0.08730755071924853</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01723261662257327</v>
+        <v>0.01477392969611536</v>
       </c>
       <c r="C40">
-        <v>0.04117533595474729</v>
+        <v>-0.03683078200802473</v>
       </c>
       <c r="D40">
-        <v>0.07718795464515198</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.08369417662809431</v>
+      </c>
+      <c r="E40">
+        <v>-0.07337021237609065</v>
+      </c>
+      <c r="F40">
+        <v>-0.0500413568314701</v>
+      </c>
+      <c r="G40">
+        <v>0.02045447016811099</v>
+      </c>
+      <c r="H40">
+        <v>0.1627114145129386</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.0252981461848569</v>
+        <v>0.02330428859326309</v>
       </c>
       <c r="C41">
-        <v>-0.00951702547647494</v>
+        <v>-0.007970576504737911</v>
       </c>
       <c r="D41">
-        <v>0.07062760430600885</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.0580047160438097</v>
+      </c>
+      <c r="E41">
+        <v>-0.04997415596097764</v>
+      </c>
+      <c r="F41">
+        <v>0.00455596832917717</v>
+      </c>
+      <c r="G41">
+        <v>2.037012949604258e-05</v>
+      </c>
+      <c r="H41">
+        <v>0.04929482170271873</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.0347995610764277</v>
+        <v>0.02531268014181896</v>
       </c>
       <c r="C43">
-        <v>0.001758273058435002</v>
+        <v>-0.01852515560290628</v>
       </c>
       <c r="D43">
-        <v>0.1086286035113175</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.08908164164432605</v>
+      </c>
+      <c r="E43">
+        <v>-0.0353977709180435</v>
+      </c>
+      <c r="F43">
+        <v>-0.003470320778806864</v>
+      </c>
+      <c r="G43">
+        <v>0.00264499638953867</v>
+      </c>
+      <c r="H43">
+        <v>0.06780086086438716</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01304754474007293</v>
+        <v>0.01675654665323401</v>
       </c>
       <c r="C44">
-        <v>0.03947537479798162</v>
+        <v>-0.04082909424264784</v>
       </c>
       <c r="D44">
-        <v>0.08865621659412394</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09679135044523281</v>
+      </c>
+      <c r="E44">
+        <v>-0.06869226464483358</v>
+      </c>
+      <c r="F44">
+        <v>0.004315654487828137</v>
+      </c>
+      <c r="G44">
+        <v>-0.01870945976670823</v>
+      </c>
+      <c r="H44">
+        <v>0.07293540841799948</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02037734918984957</v>
+        <v>0.01696684190811805</v>
       </c>
       <c r="C46">
-        <v>0.01859043637015726</v>
+        <v>-0.02957807019126561</v>
       </c>
       <c r="D46">
-        <v>0.0753862901193029</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.08652608389508198</v>
+      </c>
+      <c r="E46">
+        <v>-0.03537898613641596</v>
+      </c>
+      <c r="F46">
+        <v>0.01986758669436679</v>
+      </c>
+      <c r="G46">
+        <v>-0.03163322514225878</v>
+      </c>
+      <c r="H46">
+        <v>0.1005826827559802</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09271868141211741</v>
+        <v>0.08364543235571358</v>
       </c>
       <c r="C47">
-        <v>0.06774078507687657</v>
+        <v>-0.08966095861465628</v>
       </c>
       <c r="D47">
-        <v>0.04195008424923224</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.03412755471223901</v>
+      </c>
+      <c r="E47">
+        <v>-0.03929853530055295</v>
+      </c>
+      <c r="F47">
+        <v>-0.02120293898434831</v>
+      </c>
+      <c r="G47">
+        <v>-0.05688189752694544</v>
+      </c>
+      <c r="H47">
+        <v>0.01239665605145836</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02081256180958442</v>
+        <v>0.01941277145558759</v>
       </c>
       <c r="C48">
-        <v>0.006954112361730096</v>
+        <v>-0.01878565947519064</v>
       </c>
       <c r="D48">
-        <v>0.07300426537709986</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.07890418377904679</v>
+      </c>
+      <c r="E48">
+        <v>-0.04910068046018886</v>
+      </c>
+      <c r="F48">
+        <v>0.01606017971018004</v>
+      </c>
+      <c r="G48">
+        <v>-0.01161580502517131</v>
+      </c>
+      <c r="H48">
+        <v>0.05410386330161003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.07628735802012507</v>
+        <v>0.05911894339602433</v>
       </c>
       <c r="C50">
-        <v>0.06306965608922789</v>
+        <v>-0.07021030423304378</v>
       </c>
       <c r="D50">
-        <v>0.06865114743077304</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.06007713545094696</v>
+      </c>
+      <c r="E50">
+        <v>-0.04937029046341653</v>
+      </c>
+      <c r="F50">
+        <v>-0.03993647125891832</v>
+      </c>
+      <c r="G50">
+        <v>0.008580700882579357</v>
+      </c>
+      <c r="H50">
+        <v>0.04133490556443685</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.007775564506572984</v>
+        <v>0.007551343612317843</v>
       </c>
       <c r="C51">
-        <v>0.01304313395913486</v>
+        <v>-0.01588413618984525</v>
       </c>
       <c r="D51">
-        <v>0.07778923630808911</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.08619035277021478</v>
+      </c>
+      <c r="E51">
+        <v>-0.02331234501535039</v>
+      </c>
+      <c r="F51">
+        <v>0.002167319795232902</v>
+      </c>
+      <c r="G51">
+        <v>0.001361813740581458</v>
+      </c>
+      <c r="H51">
+        <v>0.07940092193819075</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.07514416599251317</v>
+        <v>0.08522385565667076</v>
       </c>
       <c r="C53">
-        <v>0.08880141500008502</v>
+        <v>-0.1021163264125589</v>
       </c>
       <c r="D53">
-        <v>0.02131540614846367</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.0078956802244442</v>
+      </c>
+      <c r="E53">
+        <v>-0.1003926268502387</v>
+      </c>
+      <c r="F53">
+        <v>-0.02410891262571872</v>
+      </c>
+      <c r="G53">
+        <v>-0.09605021554910843</v>
+      </c>
+      <c r="H53">
+        <v>-0.02106000054538424</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.03315727773865744</v>
+        <v>0.02681368233161826</v>
       </c>
       <c r="C54">
-        <v>0.02915090626571611</v>
+        <v>-0.0352821293575643</v>
       </c>
       <c r="D54">
-        <v>0.08740938403298293</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.08662480720796159</v>
+      </c>
+      <c r="E54">
+        <v>-0.03759462721745496</v>
+      </c>
+      <c r="F54">
+        <v>0.01796739703698683</v>
+      </c>
+      <c r="G54">
+        <v>-0.004182732259340747</v>
+      </c>
+      <c r="H54">
+        <v>0.1138689518779371</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08579855428834059</v>
+        <v>0.08317597499962306</v>
       </c>
       <c r="C55">
-        <v>0.06829683054799153</v>
+        <v>-0.08274133639888352</v>
       </c>
       <c r="D55">
-        <v>-0.001414541784084541</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01082452298133859</v>
+      </c>
+      <c r="E55">
+        <v>-0.06291621658377916</v>
+      </c>
+      <c r="F55">
+        <v>-0.02863702030906367</v>
+      </c>
+      <c r="G55">
+        <v>-0.04299600171697227</v>
+      </c>
+      <c r="H55">
+        <v>-0.02213244339021807</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1337249395536497</v>
+        <v>0.1297575198614267</v>
       </c>
       <c r="C56">
-        <v>0.1038977592804958</v>
+        <v>-0.1264190567228402</v>
       </c>
       <c r="D56">
-        <v>0.005700360224310564</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01154145820204076</v>
+      </c>
+      <c r="E56">
+        <v>-0.06317466339797861</v>
+      </c>
+      <c r="F56">
+        <v>-0.0138140897663147</v>
+      </c>
+      <c r="G56">
+        <v>-0.06008331607460345</v>
+      </c>
+      <c r="H56">
+        <v>-0.01794540361546609</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.03327799918659202</v>
+        <v>0.03564192182143495</v>
       </c>
       <c r="C58">
-        <v>-0.02443574948445211</v>
+        <v>-0.02135469743998313</v>
       </c>
       <c r="D58">
-        <v>0.397559598262703</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3945408408953137</v>
+      </c>
+      <c r="E58">
+        <v>-0.2396873487235432</v>
+      </c>
+      <c r="F58">
+        <v>-0.09661540548220261</v>
+      </c>
+      <c r="G58">
+        <v>0.4003194328416314</v>
+      </c>
+      <c r="H58">
+        <v>-0.3794870570167133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1395854785174614</v>
+        <v>0.1745674175795066</v>
       </c>
       <c r="C59">
-        <v>-0.1921444469967595</v>
+        <v>0.1714350886764636</v>
       </c>
       <c r="D59">
-        <v>0.01631392471070968</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.04520281418505322</v>
+      </c>
+      <c r="E59">
+        <v>-0.01592002632231589</v>
+      </c>
+      <c r="F59">
+        <v>0.03891729581484332</v>
+      </c>
+      <c r="G59">
+        <v>0.00198325768033141</v>
+      </c>
+      <c r="H59">
+        <v>-0.01933028900099922</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2548101106808284</v>
+        <v>0.2312870924911722</v>
       </c>
       <c r="C60">
-        <v>0.05444153959233747</v>
+        <v>-0.09683107422013384</v>
       </c>
       <c r="D60">
-        <v>0.1386660452070123</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1032200219967769</v>
+      </c>
+      <c r="E60">
+        <v>0.3527521017928588</v>
+      </c>
+      <c r="F60">
+        <v>-0.09764788601227462</v>
+      </c>
+      <c r="G60">
+        <v>-0.01233525513821065</v>
+      </c>
+      <c r="H60">
+        <v>-0.08745481267766417</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.04590689738367769</v>
+        <v>0.04106370429673654</v>
       </c>
       <c r="C61">
-        <v>0.05005830428869983</v>
+        <v>-0.05967328514406612</v>
       </c>
       <c r="D61">
-        <v>0.1011372077635846</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.09339230926595692</v>
+      </c>
+      <c r="E61">
+        <v>-0.006023666330859725</v>
+      </c>
+      <c r="F61">
+        <v>0.00675896440788577</v>
+      </c>
+      <c r="G61">
+        <v>-0.02412674239250435</v>
+      </c>
+      <c r="H61">
+        <v>0.08000022943655356</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01655108422652855</v>
+        <v>0.01527217551326377</v>
       </c>
       <c r="C63">
-        <v>0.01706125949822123</v>
+        <v>-0.03175045606299991</v>
       </c>
       <c r="D63">
-        <v>0.06330153788509771</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07194889378349899</v>
+      </c>
+      <c r="E63">
+        <v>-0.04562438131931802</v>
+      </c>
+      <c r="F63">
+        <v>-0.02452806236975063</v>
+      </c>
+      <c r="G63">
+        <v>0.003919986745980634</v>
+      </c>
+      <c r="H63">
+        <v>0.0482820485049303</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05817422114421569</v>
+        <v>0.05466375920396002</v>
       </c>
       <c r="C64">
-        <v>0.06192813603789429</v>
+        <v>-0.07950540081819721</v>
       </c>
       <c r="D64">
-        <v>0.06289825765355612</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05545575577897389</v>
+      </c>
+      <c r="E64">
+        <v>-0.02598423067675456</v>
+      </c>
+      <c r="F64">
+        <v>0.01524094369920301</v>
+      </c>
+      <c r="G64">
+        <v>-0.05351495347505503</v>
+      </c>
+      <c r="H64">
+        <v>0.04440924871570596</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.05936092393092953</v>
+        <v>0.05099924836945403</v>
       </c>
       <c r="C65">
-        <v>-0.0004697382303062382</v>
+        <v>-0.02490801333102957</v>
       </c>
       <c r="D65">
-        <v>0.1144646476667854</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1190614012066903</v>
+      </c>
+      <c r="E65">
+        <v>-0.004612588545096368</v>
+      </c>
+      <c r="F65">
+        <v>-0.01548169590512349</v>
+      </c>
+      <c r="G65">
+        <v>0.03841201858496624</v>
+      </c>
+      <c r="H65">
+        <v>-0.02158254385682028</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04483386256750078</v>
+        <v>0.04228874875406976</v>
       </c>
       <c r="C66">
-        <v>0.05251446259897665</v>
+        <v>-0.07186802716315037</v>
       </c>
       <c r="D66">
-        <v>0.1149765722360642</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1295948970705291</v>
+      </c>
+      <c r="E66">
+        <v>-0.01323970156529652</v>
+      </c>
+      <c r="F66">
+        <v>0.007295888733518678</v>
+      </c>
+      <c r="G66">
+        <v>0.005755359519229781</v>
+      </c>
+      <c r="H66">
+        <v>0.06158104348175315</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.0458037106514172</v>
+        <v>0.03833769600637228</v>
       </c>
       <c r="C67">
-        <v>0.02571631801437514</v>
+        <v>-0.02812701487625901</v>
       </c>
       <c r="D67">
-        <v>0.03069770987172364</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.02467268527298212</v>
+      </c>
+      <c r="E67">
+        <v>-0.02549518262849238</v>
+      </c>
+      <c r="F67">
+        <v>-0.002551767556003785</v>
+      </c>
+      <c r="G67">
+        <v>0.02972519827460949</v>
+      </c>
+      <c r="H67">
+        <v>0.04319764911934459</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.1707364194272365</v>
+        <v>0.196558879234509</v>
       </c>
       <c r="C68">
-        <v>-0.2500979564907774</v>
+        <v>0.205176348121346</v>
       </c>
       <c r="D68">
-        <v>-0.01667638798285496</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01741217668191833</v>
+      </c>
+      <c r="E68">
+        <v>-0.05632665072519621</v>
+      </c>
+      <c r="F68">
+        <v>-0.0221618718277221</v>
+      </c>
+      <c r="G68">
+        <v>0.009332502262562173</v>
+      </c>
+      <c r="H68">
+        <v>-0.007713803066402976</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.08401246410859332</v>
+        <v>0.07634499211814055</v>
       </c>
       <c r="C69">
-        <v>0.07856140496814426</v>
+        <v>-0.09818882591696355</v>
       </c>
       <c r="D69">
-        <v>0.05730193501813591</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.04829002647073882</v>
+      </c>
+      <c r="E69">
+        <v>-0.02520533616538924</v>
+      </c>
+      <c r="F69">
+        <v>-0.001526853623024734</v>
+      </c>
+      <c r="G69">
+        <v>-0.03913833822227206</v>
+      </c>
+      <c r="H69">
+        <v>0.02625395907891621</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.14484338493975</v>
+        <v>0.1817226705228319</v>
       </c>
       <c r="C71">
-        <v>-0.2463352706377146</v>
+        <v>0.2159544450637978</v>
       </c>
       <c r="D71">
-        <v>0.01668411950389662</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.03886168936621548</v>
+      </c>
+      <c r="E71">
+        <v>-0.05305355912106036</v>
+      </c>
+      <c r="F71">
+        <v>-0.02146939046953794</v>
+      </c>
+      <c r="G71">
+        <v>-0.03684960406355855</v>
+      </c>
+      <c r="H71">
+        <v>0.01319098898186512</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09954837732865859</v>
+        <v>0.1015609488270979</v>
       </c>
       <c r="C72">
-        <v>0.03801672818569931</v>
+        <v>-0.06698162711633958</v>
       </c>
       <c r="D72">
-        <v>0.09367823630252813</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.09726030359830869</v>
+      </c>
+      <c r="E72">
+        <v>0.02953827856282601</v>
+      </c>
+      <c r="F72">
+        <v>-0.04063553948835711</v>
+      </c>
+      <c r="G72">
+        <v>-0.02477135320086482</v>
+      </c>
+      <c r="H72">
+        <v>0.01980769064713636</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.3087584478527555</v>
+        <v>0.2587976962086783</v>
       </c>
       <c r="C73">
-        <v>0.001594143469946383</v>
+        <v>-0.07564933804117596</v>
       </c>
       <c r="D73">
-        <v>0.2377658104893663</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.1700908614788634</v>
+      </c>
+      <c r="E73">
+        <v>0.6683201882323707</v>
+      </c>
+      <c r="F73">
+        <v>-0.1195451301593509</v>
+      </c>
+      <c r="G73">
+        <v>0.05216920349023076</v>
+      </c>
+      <c r="H73">
+        <v>-0.1406032837815727</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1024624579210286</v>
+        <v>0.1003140478776813</v>
       </c>
       <c r="C74">
-        <v>0.06778930261758605</v>
+        <v>-0.09091028772884065</v>
       </c>
       <c r="D74">
-        <v>0.02398975396401659</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.0003423747874333053</v>
+      </c>
+      <c r="E74">
+        <v>-0.08731916779515805</v>
+      </c>
+      <c r="F74">
+        <v>-0.03855835794734446</v>
+      </c>
+      <c r="G74">
+        <v>-0.0584392809493249</v>
+      </c>
+      <c r="H74">
+        <v>-0.05129041127658344</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2366580594001592</v>
+        <v>0.2297726930412454</v>
       </c>
       <c r="C75">
-        <v>0.1335254208693181</v>
+        <v>-0.1672416376507598</v>
       </c>
       <c r="D75">
-        <v>-0.05676938870680417</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.09731710496567023</v>
+      </c>
+      <c r="E75">
+        <v>-0.08692728296846132</v>
+      </c>
+      <c r="F75">
+        <v>0.0229001365522729</v>
+      </c>
+      <c r="G75">
+        <v>-0.08094618705511121</v>
+      </c>
+      <c r="H75">
+        <v>-0.1195566516191679</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1255150858730583</v>
+        <v>0.1246986331340056</v>
       </c>
       <c r="C76">
-        <v>0.09063393183635669</v>
+        <v>-0.1160730984752048</v>
       </c>
       <c r="D76">
-        <v>1.558219450643375e-05</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01705005039299403</v>
+      </c>
+      <c r="E76">
+        <v>-0.1161591660353876</v>
+      </c>
+      <c r="F76">
+        <v>-0.007390953391673422</v>
+      </c>
+      <c r="G76">
+        <v>-0.06348782257309224</v>
+      </c>
+      <c r="H76">
+        <v>-0.01219883879724132</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.07457211420911657</v>
+        <v>0.0681753586237441</v>
       </c>
       <c r="C77">
-        <v>0.05209600378178623</v>
+        <v>-0.06849486262074712</v>
       </c>
       <c r="D77">
-        <v>0.07498024787700559</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1380870018490573</v>
+      </c>
+      <c r="E77">
+        <v>-0.1280981694724192</v>
+      </c>
+      <c r="F77">
+        <v>0.3060523646916856</v>
+      </c>
+      <c r="G77">
+        <v>0.09969373465097431</v>
+      </c>
+      <c r="H77">
+        <v>-0.2195067385797861</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.03725636754474446</v>
+        <v>0.03947915049133705</v>
       </c>
       <c r="C78">
-        <v>0.0488952860845366</v>
+        <v>-0.06241850090670813</v>
       </c>
       <c r="D78">
-        <v>0.1119026688268371</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1237926056553911</v>
+      </c>
+      <c r="E78">
+        <v>-0.022680808787401</v>
+      </c>
+      <c r="F78">
+        <v>-0.02311172519712882</v>
+      </c>
+      <c r="G78">
+        <v>-0.03012052241818968</v>
+      </c>
+      <c r="H78">
+        <v>0.03659805713217524</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.0006359555727344069</v>
+        <v>0.04160066771225548</v>
       </c>
       <c r="C79">
-        <v>-0.0006433289631243778</v>
+        <v>-0.08726247166268949</v>
       </c>
       <c r="D79">
-        <v>0.01755535502233764</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02493393010638497</v>
+      </c>
+      <c r="E79">
+        <v>-0.1760362752277949</v>
+      </c>
+      <c r="F79">
+        <v>-0.0703676218887411</v>
+      </c>
+      <c r="G79">
+        <v>-0.549885762450199</v>
+      </c>
+      <c r="H79">
+        <v>-0.548488938325461</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.03028717093736885</v>
+        <v>0.02531612270776579</v>
       </c>
       <c r="C80">
-        <v>0.01958191844602166</v>
+        <v>-0.03936198454731596</v>
       </c>
       <c r="D80">
-        <v>0.02669335966194061</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03518911360990336</v>
+      </c>
+      <c r="E80">
+        <v>-0.008246713472047874</v>
+      </c>
+      <c r="F80">
+        <v>0.03508586985169661</v>
+      </c>
+      <c r="G80">
+        <v>0.04016180548639795</v>
+      </c>
+      <c r="H80">
+        <v>0.03174508725515288</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1382176101231891</v>
+        <v>0.1273237076631913</v>
       </c>
       <c r="C81">
-        <v>0.1006591546058851</v>
+        <v>-0.1198880133189176</v>
       </c>
       <c r="D81">
-        <v>-0.04287256335325355</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.0656260390130242</v>
+      </c>
+      <c r="E81">
+        <v>-0.1176449642476988</v>
+      </c>
+      <c r="F81">
+        <v>0.006483082511259757</v>
+      </c>
+      <c r="G81">
+        <v>-0.05306732620534307</v>
+      </c>
+      <c r="H81">
+        <v>-0.03372761882689329</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.2874048651489807</v>
+        <v>0.2469950639165666</v>
       </c>
       <c r="C82">
-        <v>0.2777228664682765</v>
+        <v>-0.2555073073878181</v>
       </c>
       <c r="D82">
-        <v>-0.2212134122860548</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2245870726330008</v>
+      </c>
+      <c r="E82">
+        <v>-0.0009868824245929317</v>
+      </c>
+      <c r="F82">
+        <v>-0.05622811610034704</v>
+      </c>
+      <c r="G82">
+        <v>-0.2471978676102321</v>
+      </c>
+      <c r="H82">
+        <v>0.4255417354754217</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.02902835260458959</v>
+        <v>0.02315657579174745</v>
       </c>
       <c r="C83">
-        <v>0.04563938070243471</v>
+        <v>-0.05203434254274131</v>
       </c>
       <c r="D83">
-        <v>0.05099797780976129</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05146600280669464</v>
+      </c>
+      <c r="E83">
+        <v>-0.002819745522840938</v>
+      </c>
+      <c r="F83">
+        <v>0.02267335324874571</v>
+      </c>
+      <c r="G83">
+        <v>-0.002985182741634013</v>
+      </c>
+      <c r="H83">
+        <v>0.02782262893356982</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0002130072211666323</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.004948449423450108</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.01599689190613099</v>
+      </c>
+      <c r="E84">
+        <v>-0.01536907409772882</v>
+      </c>
+      <c r="F84">
+        <v>-0.004744619243431473</v>
+      </c>
+      <c r="G84">
+        <v>0.009636502849927113</v>
+      </c>
+      <c r="H84">
+        <v>0.002084940595839071</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.178175208332822</v>
+        <v>0.1596645134702559</v>
       </c>
       <c r="C85">
-        <v>0.09476442650031001</v>
+        <v>-0.1332953122566206</v>
       </c>
       <c r="D85">
-        <v>-0.03369630376198909</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.06793388335129091</v>
+      </c>
+      <c r="E85">
+        <v>-0.04578288006609497</v>
+      </c>
+      <c r="F85">
+        <v>-0.03344032810864132</v>
+      </c>
+      <c r="G85">
+        <v>-0.08822182546673293</v>
+      </c>
+      <c r="H85">
+        <v>-0.1137084906791306</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01409344390251105</v>
+        <v>0.0190537776103358</v>
       </c>
       <c r="C86">
-        <v>0.01981470459152702</v>
+        <v>-0.02314889193336203</v>
       </c>
       <c r="D86">
-        <v>0.1345146223622214</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1249204814588804</v>
+      </c>
+      <c r="E86">
+        <v>-0.01275260944585272</v>
+      </c>
+      <c r="F86">
+        <v>0.006402060573389136</v>
+      </c>
+      <c r="G86">
+        <v>-0.02664760773268405</v>
+      </c>
+      <c r="H86">
+        <v>0.06158162329556124</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02716264828588339</v>
+        <v>0.03234885360296616</v>
       </c>
       <c r="C87">
-        <v>0.002501106126106346</v>
+        <v>-0.02614638373470543</v>
       </c>
       <c r="D87">
-        <v>0.09170772652687605</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1264530385421857</v>
+      </c>
+      <c r="E87">
+        <v>-0.07824103467998256</v>
+      </c>
+      <c r="F87">
+        <v>0.02254691041519335</v>
+      </c>
+      <c r="G87">
+        <v>0.005678871894927925</v>
+      </c>
+      <c r="H87">
+        <v>0.03468183874384614</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.07958369336143419</v>
+        <v>0.07182923518601438</v>
       </c>
       <c r="C88">
-        <v>0.0410838425437122</v>
+        <v>-0.05849111135091709</v>
       </c>
       <c r="D88">
-        <v>0.05167462648389224</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02962856185841619</v>
+      </c>
+      <c r="E88">
+        <v>-0.02226645036930605</v>
+      </c>
+      <c r="F88">
+        <v>0.0006894286942385639</v>
+      </c>
+      <c r="G88">
+        <v>-0.002185820176246624</v>
+      </c>
+      <c r="H88">
+        <v>0.03660743273324939</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.2059786911137474</v>
+        <v>0.2714759288536296</v>
       </c>
       <c r="C89">
-        <v>-0.3656533996302082</v>
+        <v>0.3515700547155687</v>
       </c>
       <c r="D89">
-        <v>-0.05116667121483668</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01015538845179388</v>
+      </c>
+      <c r="E89">
+        <v>-0.05734848933571995</v>
+      </c>
+      <c r="F89">
+        <v>0.04947515119690059</v>
+      </c>
+      <c r="G89">
+        <v>-0.03280733128634791</v>
+      </c>
+      <c r="H89">
+        <v>0.0647143973395221</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.2043319694696612</v>
+        <v>0.2394588007251493</v>
       </c>
       <c r="C90">
-        <v>-0.29271687167662</v>
+        <v>0.2582802140255904</v>
       </c>
       <c r="D90">
-        <v>-0.04987055395443458</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.007418997932725562</v>
+      </c>
+      <c r="E90">
+        <v>-0.05055077235980578</v>
+      </c>
+      <c r="F90">
+        <v>-0.002326181588271799</v>
+      </c>
+      <c r="G90">
+        <v>0.03202486858013515</v>
+      </c>
+      <c r="H90">
+        <v>0.05059674595113773</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1745680762374443</v>
+        <v>0.1616856299932644</v>
       </c>
       <c r="C91">
-        <v>0.1321458573313295</v>
+        <v>-0.1581389613993832</v>
       </c>
       <c r="D91">
-        <v>-0.05704278547882843</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08163122670570881</v>
+      </c>
+      <c r="E91">
+        <v>-0.1063194450252124</v>
+      </c>
+      <c r="F91">
+        <v>-0.004357292165018777</v>
+      </c>
+      <c r="G91">
+        <v>-0.07788634138087844</v>
+      </c>
+      <c r="H91">
+        <v>-0.116999603790429</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1676693406394597</v>
+        <v>0.2166095354589277</v>
       </c>
       <c r="C92">
-        <v>-0.2821683321590562</v>
+        <v>0.2709930582020765</v>
       </c>
       <c r="D92">
-        <v>-0.00907001821959633</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.01556804168347617</v>
+      </c>
+      <c r="E92">
+        <v>-0.0840679426504141</v>
+      </c>
+      <c r="F92">
+        <v>0.0361934733462705</v>
+      </c>
+      <c r="G92">
+        <v>-0.007187045611202032</v>
+      </c>
+      <c r="H92">
+        <v>0.0394037290665273</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2313606780878321</v>
+        <v>0.2626739426834057</v>
       </c>
       <c r="C93">
-        <v>-0.3147082461379054</v>
+        <v>0.2719199252328162</v>
       </c>
       <c r="D93">
-        <v>-0.02969752547454937</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01142949147124138</v>
+      </c>
+      <c r="E93">
+        <v>-0.02949055680855769</v>
+      </c>
+      <c r="F93">
+        <v>-0.03487166810539327</v>
+      </c>
+      <c r="G93">
+        <v>-0.008199859776174101</v>
+      </c>
+      <c r="H93">
+        <v>0.005113340671616974</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3884302804189647</v>
+        <v>0.3341647044313198</v>
       </c>
       <c r="C94">
-        <v>0.260378716693061</v>
+        <v>-0.2686899075896636</v>
       </c>
       <c r="D94">
-        <v>-0.4558745518516304</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4411614495919604</v>
+      </c>
+      <c r="E94">
+        <v>-0.1198267989423808</v>
+      </c>
+      <c r="F94">
+        <v>0.03751199663694844</v>
+      </c>
+      <c r="G94">
+        <v>0.592601916008747</v>
+      </c>
+      <c r="H94">
+        <v>-0.04615151591875867</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.09067686089052857</v>
+        <v>0.07685278804082507</v>
       </c>
       <c r="C95">
-        <v>0.06646769267324942</v>
+        <v>-0.06393199906277791</v>
       </c>
       <c r="D95">
-        <v>0.1416451821814488</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.08807691171355489</v>
+      </c>
+      <c r="E95">
+        <v>0.1506304083863448</v>
+      </c>
+      <c r="F95">
+        <v>0.8992871566339722</v>
+      </c>
+      <c r="G95">
+        <v>-0.064724869020776</v>
+      </c>
+      <c r="H95">
+        <v>-0.02114905513218212</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1792982162213057</v>
+        <v>0.1651818684285458</v>
       </c>
       <c r="C98">
-        <v>0.01592653564346958</v>
+        <v>-0.05845343260203113</v>
       </c>
       <c r="D98">
-        <v>0.1352710439264529</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1223759823846337</v>
+      </c>
+      <c r="E98">
+        <v>0.3013283303468929</v>
+      </c>
+      <c r="F98">
+        <v>-0.1052882887666762</v>
+      </c>
+      <c r="G98">
+        <v>-0.02771551049493752</v>
+      </c>
+      <c r="H98">
+        <v>-0.04301127344089989</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.004589571586197869</v>
+        <v>0.006665037367204156</v>
       </c>
       <c r="C101">
-        <v>0.01758124762641326</v>
+        <v>-0.02193680737166839</v>
       </c>
       <c r="D101">
-        <v>0.06549140311501923</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.0791773899278382</v>
+      </c>
+      <c r="E101">
+        <v>-0.03657986080827726</v>
+      </c>
+      <c r="F101">
+        <v>-0.00317307720569316</v>
+      </c>
+      <c r="G101">
+        <v>-0.02349395623660088</v>
+      </c>
+      <c r="H101">
+        <v>0.1007390013852706</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1210190288187044</v>
+        <v>0.1087201035824873</v>
       </c>
       <c r="C102">
-        <v>0.1172505768649846</v>
+        <v>-0.1201008351670718</v>
       </c>
       <c r="D102">
-        <v>-0.0327539583962823</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04975837185684361</v>
+      </c>
+      <c r="E102">
+        <v>-0.0333716413348136</v>
+      </c>
+      <c r="F102">
+        <v>0.02168098246642259</v>
+      </c>
+      <c r="G102">
+        <v>-0.05516057149756762</v>
+      </c>
+      <c r="H102">
+        <v>0.01809284135501206</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
